--- a/data/ic_net_cn/20220112数据res1500.xlsx
+++ b/data/ic_net_cn/20220112数据res1500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code_workplace\python\2022\january\data\ic_net_cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288B5B6-A9EA-4F2F-A7F0-96224CAD3FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81BCD3-CF3A-42D2-839F-E6E5321533EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="480" windowWidth="20832" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="684" windowWidth="20832" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="508">
   <si>
     <t>品牌</t>
   </si>
@@ -467,6 +467,1083 @@
   </si>
   <si>
     <t>TPS61258EVM-766</t>
+  </si>
+  <si>
+    <t>TPS61258YFFR</t>
+  </si>
+  <si>
+    <t>TPS61258YFFT</t>
+  </si>
+  <si>
+    <t>TPS612592YFFR</t>
+  </si>
+  <si>
+    <t>TPS612592YFFT</t>
+  </si>
+  <si>
+    <t>TPS61259EVM-766</t>
+  </si>
+  <si>
+    <t>TPS61259YFFR</t>
+  </si>
+  <si>
+    <t>TPS61259YFFT</t>
+  </si>
+  <si>
+    <t>TPS61260DRVR</t>
+  </si>
+  <si>
+    <t>TPS61260DRVT</t>
+  </si>
+  <si>
+    <t>TPS61260EVM-673</t>
+  </si>
+  <si>
+    <t>TPS61261DRVR</t>
+  </si>
+  <si>
+    <t>TPS61261DRVT</t>
+  </si>
+  <si>
+    <t>TPS61261EVM-208</t>
+  </si>
+  <si>
+    <t>TPS61280AYFFR</t>
+  </si>
+  <si>
+    <t>TPS61280AYFFT</t>
+  </si>
+  <si>
+    <t>TPS61280DYFFR</t>
+  </si>
+  <si>
+    <t>TPS61280DYFFT</t>
+  </si>
+  <si>
+    <t>TPS61280EVM-585</t>
+  </si>
+  <si>
+    <t>TPS61280YFFR</t>
+  </si>
+  <si>
+    <t>TPS61280YFFT</t>
+  </si>
+  <si>
+    <t>TPS61281AYFFR</t>
+  </si>
+  <si>
+    <t>TPS61281AYFFT</t>
+  </si>
+  <si>
+    <t>TPS61281DYFFR</t>
+  </si>
+  <si>
+    <t>TPS61281DYFFT</t>
+  </si>
+  <si>
+    <t>TPS61281EVM-586</t>
+  </si>
+  <si>
+    <t>TPS61281YFFR</t>
+  </si>
+  <si>
+    <t>TPS61281YFFT</t>
+  </si>
+  <si>
+    <t>TPS61282AYFFR</t>
+  </si>
+  <si>
+    <t>TPS61282AYFFT</t>
+  </si>
+  <si>
+    <t>TPS61282DYFFR</t>
+  </si>
+  <si>
+    <t>TPS61282DYFFT</t>
+  </si>
+  <si>
+    <t>TPS61282EVM-586</t>
+  </si>
+  <si>
+    <t>TPS61282YFFR</t>
+  </si>
+  <si>
+    <t>TPS61282YFFT</t>
+  </si>
+  <si>
+    <t>TPS61288EVM-064</t>
+  </si>
+  <si>
+    <t>TPS61288RQQR</t>
+  </si>
+  <si>
+    <t>TPS61291DRVR</t>
+  </si>
+  <si>
+    <t>TPS61291DRVT</t>
+  </si>
+  <si>
+    <t>TPS61291EVM-569</t>
+  </si>
+  <si>
+    <t>TPS613221ADBVR</t>
+  </si>
+  <si>
+    <t>TPS613221ADBVT</t>
+  </si>
+  <si>
+    <t>TPS613221AEVM-019</t>
+  </si>
+  <si>
+    <t>TPS613222ADBVR</t>
+  </si>
+  <si>
+    <t>TPS613222ADBVT</t>
+  </si>
+  <si>
+    <t>TPS613223ADBVR</t>
+  </si>
+  <si>
+    <t>TPS613223ADBVT</t>
+  </si>
+  <si>
+    <t>TPS613226ADBVR</t>
+  </si>
+  <si>
+    <t>TPS613226ADBVT</t>
+  </si>
+  <si>
+    <t>TPS61322DBZR</t>
+  </si>
+  <si>
+    <t>TPS61322DBZT</t>
+  </si>
+  <si>
+    <t>TPS61322EVM-001</t>
+  </si>
+  <si>
+    <t>TPS61372EVM-033</t>
+  </si>
+  <si>
+    <t>TPS61372YKBR</t>
+  </si>
+  <si>
+    <t>TPS61372YKBT</t>
+  </si>
+  <si>
+    <t>TPS613783QWRTERQ1</t>
+  </si>
+  <si>
+    <t>TPS613785QWRTERQ1</t>
+  </si>
+  <si>
+    <t>TPS61378Q1EVM-060</t>
+  </si>
+  <si>
+    <t>TPS61378QWRTERQ1</t>
+  </si>
+  <si>
+    <t>TPS61379Q1EVM-082</t>
+  </si>
+  <si>
+    <t>TPS61379QWRTERQ1</t>
+  </si>
+  <si>
+    <t>TPS61390EVM-020</t>
+  </si>
+  <si>
+    <t>TPS61390RTER</t>
+  </si>
+  <si>
+    <t>TPS61390RTET</t>
+  </si>
+  <si>
+    <t>TPS61391EVM-058</t>
+  </si>
+  <si>
+    <t>TPS61391RTER</t>
+  </si>
+  <si>
+    <t>TPS61391RTET</t>
+  </si>
+  <si>
+    <t>TPS63000DRCR</t>
+  </si>
+  <si>
+    <t>TPS63000DRCRG4</t>
+  </si>
+  <si>
+    <t>TPS63000DRCT</t>
+  </si>
+  <si>
+    <t>TPS63000DRCTG4</t>
+  </si>
+  <si>
+    <t>TPS63000EVM-148</t>
+  </si>
+  <si>
+    <t>TPS63000IDRCRQ1</t>
+  </si>
+  <si>
+    <t>TPS63001DRCR</t>
+  </si>
+  <si>
+    <t>TPS63001DRCRG4</t>
+  </si>
+  <si>
+    <t>TPS63001DRCT</t>
+  </si>
+  <si>
+    <t>TPS63002DRCR</t>
+  </si>
+  <si>
+    <t>TPS63002DRCT</t>
+  </si>
+  <si>
+    <t>TPS63002DRCTG4</t>
+  </si>
+  <si>
+    <t>TPS63010EVM-235</t>
+  </si>
+  <si>
+    <t>TPS63010YFFR</t>
+  </si>
+  <si>
+    <t>TPS63010YFFT</t>
+  </si>
+  <si>
+    <t>TPS63011YFFR</t>
+  </si>
+  <si>
+    <t>TPS63011YFFT</t>
+  </si>
+  <si>
+    <t>TPS63012YFFR</t>
+  </si>
+  <si>
+    <t>TPS63012YFFT</t>
+  </si>
+  <si>
+    <t>TPS63020DSJR</t>
+  </si>
+  <si>
+    <t>TPS63020DSJT</t>
+  </si>
+  <si>
+    <t>TPS63020EVM-487</t>
+  </si>
+  <si>
+    <t>TPS63020QDSJRQ1</t>
+  </si>
+  <si>
+    <t>TPS63020QDSJTQ1</t>
+  </si>
+  <si>
+    <t>TPS63021DSJR</t>
+  </si>
+  <si>
+    <t>TPS63021DSJT</t>
+  </si>
+  <si>
+    <t>TPS630240EVM-553</t>
+  </si>
+  <si>
+    <t>TPS630241YFFR</t>
+  </si>
+  <si>
+    <t>TPS630241YFFT</t>
+  </si>
+  <si>
+    <t>TPS630242YFFR</t>
+  </si>
+  <si>
+    <t>TPS630242YFFT</t>
+  </si>
+  <si>
+    <t>TPS63024YFFR</t>
+  </si>
+  <si>
+    <t>TPS63024YFFT</t>
+  </si>
+  <si>
+    <t>TPS630250EVM-553</t>
+  </si>
+  <si>
+    <t>TPS630250EVM-668</t>
+  </si>
+  <si>
+    <t>TPS630250RNCR</t>
+  </si>
+  <si>
+    <t>TPS630250RNCT</t>
+  </si>
+  <si>
+    <t>TPS630250YFFR</t>
+  </si>
+  <si>
+    <t>TPS630250YFFT</t>
+  </si>
+  <si>
+    <t>TPS630251YFFR</t>
+  </si>
+  <si>
+    <t>TPS630251YFFT</t>
+  </si>
+  <si>
+    <t>TPS630252YFFR</t>
+  </si>
+  <si>
+    <t>TPS630252YFFT</t>
+  </si>
+  <si>
+    <t>TPS63027EVM-870</t>
+  </si>
+  <si>
+    <t>TPS63027YFFR</t>
+  </si>
+  <si>
+    <t>TPS63027YFFT</t>
+  </si>
+  <si>
+    <t>TPS63030DSKR</t>
+  </si>
+  <si>
+    <t>TPS63030DSKT</t>
+  </si>
+  <si>
+    <t>TPS63030DSKTG4</t>
+  </si>
+  <si>
+    <t>TPS63030EVM-417</t>
+  </si>
+  <si>
+    <t>TPS63030EVM-658</t>
+  </si>
+  <si>
+    <t>TPS63031DSKR</t>
+  </si>
+  <si>
+    <t>TPS63031DSKT</t>
+  </si>
+  <si>
+    <t>TPS63031DSKTG4</t>
+  </si>
+  <si>
+    <t>TPS63036EVM-163</t>
+  </si>
+  <si>
+    <t>TPS63036YFGR</t>
+  </si>
+  <si>
+    <t>TPS63036YFGT</t>
+  </si>
+  <si>
+    <t>TPS63050EVM-180</t>
+  </si>
+  <si>
+    <t>TPS63050EVM-679</t>
+  </si>
+  <si>
+    <t>TPS63050RMWR</t>
+  </si>
+  <si>
+    <t>TPS63050RMWT</t>
+  </si>
+  <si>
+    <t>TPS63050YFFR</t>
+  </si>
+  <si>
+    <t>TPS63050YFFT</t>
+  </si>
+  <si>
+    <t>TPS63051EVM-180</t>
+  </si>
+  <si>
+    <t>TPS63051RMWR</t>
+  </si>
+  <si>
+    <t>TPS63051RMWT</t>
+  </si>
+  <si>
+    <t>TPS63051YFFR</t>
+  </si>
+  <si>
+    <t>TPS63051YFFT</t>
+  </si>
+  <si>
+    <t>TPS63060DSCR</t>
+  </si>
+  <si>
+    <t>TPS63060DSCT</t>
+  </si>
+  <si>
+    <t>TPS63060EVM-619</t>
+  </si>
+  <si>
+    <t>TPS63060MDSCTEP</t>
+  </si>
+  <si>
+    <t>TPS63061DSCR</t>
+  </si>
+  <si>
+    <t>TPS63061DSCT</t>
+  </si>
+  <si>
+    <t>TPS630701RNMR</t>
+  </si>
+  <si>
+    <t>TPS630701RNMT</t>
+  </si>
+  <si>
+    <t>TPS630702EVM</t>
+  </si>
+  <si>
+    <t>TPS630702RNMR</t>
+  </si>
+  <si>
+    <t>TPS630702RNMT</t>
+  </si>
+  <si>
+    <t>TPS63070EVM-693</t>
+  </si>
+  <si>
+    <t>TPS63070RNMR</t>
+  </si>
+  <si>
+    <t>TPS63070RNMT</t>
+  </si>
+  <si>
+    <t>TPS63700DRCR</t>
+  </si>
+  <si>
+    <t>TPS63700DRCRG4</t>
+  </si>
+  <si>
+    <t>TPS63700DRCT</t>
+  </si>
+  <si>
+    <t>TPS63700DRCTG4</t>
+  </si>
+  <si>
+    <t>TPS63700EVM-139</t>
+  </si>
+  <si>
+    <t>TPS63802DLAR</t>
+  </si>
+  <si>
+    <t>TPS63802DLAT</t>
+  </si>
+  <si>
+    <t>TPS63802EVM</t>
+  </si>
+  <si>
+    <t>TPS63802HDKEVM</t>
+  </si>
+  <si>
+    <t>TPS63805EVM-026</t>
+  </si>
+  <si>
+    <t>TPS63805YFFR</t>
+  </si>
+  <si>
+    <t>TPS63805YFFT</t>
+  </si>
+  <si>
+    <t>TPS63806EVM</t>
+  </si>
+  <si>
+    <t>TPS63806YFFR</t>
+  </si>
+  <si>
+    <t>TPS63807YFFR</t>
+  </si>
+  <si>
+    <t>TPS63810EVM</t>
+  </si>
+  <si>
+    <t>TPS63810YFFR</t>
+  </si>
+  <si>
+    <t>TPS63811EVM</t>
+  </si>
+  <si>
+    <t>TPS63811YFFR</t>
+  </si>
+  <si>
+    <t>TPS63900DSKR</t>
+  </si>
+  <si>
+    <t>TPS63900EVM</t>
+  </si>
+  <si>
+    <t>TPS6734ID</t>
+  </si>
+  <si>
+    <t>TPS6734IDG4</t>
+  </si>
+  <si>
+    <t>TPS6734IDR</t>
+  </si>
+  <si>
+    <t>TPS6734IDRG4</t>
+  </si>
+  <si>
+    <t>TPS6734IP</t>
+  </si>
+  <si>
+    <t>TPS6734IPE4</t>
+  </si>
+  <si>
+    <t>TPS6735ID</t>
+  </si>
+  <si>
+    <t>TPS6735IDR</t>
+  </si>
+  <si>
+    <t>TPS6735IDRG4</t>
+  </si>
+  <si>
+    <t>TPS6735IP</t>
+  </si>
+  <si>
+    <t>TPS6735IPE4</t>
+  </si>
+  <si>
+    <t>TPS6755ID</t>
+  </si>
+  <si>
+    <t>TPS6755IDR</t>
+  </si>
+  <si>
+    <t>TPS6755IDRG4</t>
+  </si>
+  <si>
+    <t>TPS6755IP</t>
+  </si>
+  <si>
+    <t>TPS6755IPE4</t>
+  </si>
+  <si>
+    <t>TPS81256EVM-121</t>
+  </si>
+  <si>
+    <t>TPS81256SIPR</t>
+  </si>
+  <si>
+    <t>TPS81256SIPT</t>
+  </si>
+  <si>
+    <t>UC2572D</t>
+  </si>
+  <si>
+    <t>UC2572DG4</t>
+  </si>
+  <si>
+    <t>UC2572DTR</t>
+  </si>
+  <si>
+    <t>UC3572D</t>
+  </si>
+  <si>
+    <t>UC3572DG4</t>
+  </si>
+  <si>
+    <t>UC3572DTR</t>
+  </si>
+  <si>
+    <t>UCC29421PW</t>
+  </si>
+  <si>
+    <t>UCC39411D</t>
+  </si>
+  <si>
+    <t>UCC39411DG4</t>
+  </si>
+  <si>
+    <t>UCC39411PW</t>
+  </si>
+  <si>
+    <t>UCC39412PW</t>
+  </si>
+  <si>
+    <t>UCC39421PW</t>
+  </si>
+  <si>
+    <t>UCC39421PWTR</t>
+  </si>
+  <si>
+    <t>V62/06611-01XE</t>
+  </si>
+  <si>
+    <t>V62/12603-01XE</t>
+  </si>
+  <si>
+    <t>V62/14602-01XE</t>
+  </si>
+  <si>
+    <t>V62/14611-01XE</t>
+  </si>
+  <si>
+    <t>V62/16602-01XE</t>
+  </si>
+  <si>
+    <t>CSD13201W10</t>
+  </si>
+  <si>
+    <t>CSD13202Q2</t>
+  </si>
+  <si>
+    <t>CSD13302W</t>
+  </si>
+  <si>
+    <t>CSD13302WT</t>
+  </si>
+  <si>
+    <t>CSD13303W1015</t>
+  </si>
+  <si>
+    <t>CSD13306W</t>
+  </si>
+  <si>
+    <t>CSD13306WT</t>
+  </si>
+  <si>
+    <t>CSD13380F3</t>
+  </si>
+  <si>
+    <t>CSD13380F3T</t>
+  </si>
+  <si>
+    <t>CSD13381F4</t>
+  </si>
+  <si>
+    <t>CSD13381F4T</t>
+  </si>
+  <si>
+    <t>CSD13383F4</t>
+  </si>
+  <si>
+    <t>CSD13383F4T</t>
+  </si>
+  <si>
+    <t>CSD13385F5</t>
+  </si>
+  <si>
+    <t>CSD13385F5T</t>
+  </si>
+  <si>
+    <t>CSD15380F3</t>
+  </si>
+  <si>
+    <t>CSD15380F3T</t>
+  </si>
+  <si>
+    <t>CSD15571Q2</t>
+  </si>
+  <si>
+    <t>CSD16301Q2</t>
+  </si>
+  <si>
+    <t>CSD16321Q5</t>
+  </si>
+  <si>
+    <t>CSD16322Q5</t>
+  </si>
+  <si>
+    <t>CSD16323Q3</t>
+  </si>
+  <si>
+    <t>CSD16325Q5</t>
+  </si>
+  <si>
+    <t>CSD16327Q3</t>
+  </si>
+  <si>
+    <t>CSD16327Q3T</t>
+  </si>
+  <si>
+    <t>CSD16340Q3</t>
+  </si>
+  <si>
+    <t>CSD16340Q3T</t>
+  </si>
+  <si>
+    <t>CSD16342Q5A</t>
+  </si>
+  <si>
+    <t>CSD163CEVM-591</t>
+  </si>
+  <si>
+    <t>CSD16401Q5</t>
+  </si>
+  <si>
+    <t>CSD16401Q5T</t>
+  </si>
+  <si>
+    <t>CSD16403Q5A</t>
+  </si>
+  <si>
+    <t>CSD16404Q5A</t>
+  </si>
+  <si>
+    <t>CSD16406Q3</t>
+  </si>
+  <si>
+    <t>CSD16407Q5</t>
+  </si>
+  <si>
+    <t>CSD16408Q5</t>
+  </si>
+  <si>
+    <t>CSD16409Q3</t>
+  </si>
+  <si>
+    <t>CSD16410Q5A</t>
+  </si>
+  <si>
+    <t>CSD16411Q3</t>
+  </si>
+  <si>
+    <t>CSD16412Q5A</t>
+  </si>
+  <si>
+    <t>CSD16413Q5A</t>
+  </si>
+  <si>
+    <t>CSD16414Q5</t>
+  </si>
+  <si>
+    <t>CSD16415Q5</t>
+  </si>
+  <si>
+    <t>CSD16415Q5T</t>
+  </si>
+  <si>
+    <t>CSD16556Q5B</t>
+  </si>
+  <si>
+    <t>CSD16570Q5B</t>
+  </si>
+  <si>
+    <t>CSD16570Q5BT</t>
+  </si>
+  <si>
+    <t>CSD17301Q5A</t>
+  </si>
+  <si>
+    <t>CSD17302Q5A</t>
+  </si>
+  <si>
+    <t>CSD17303Q5</t>
+  </si>
+  <si>
+    <t>CSD17304Q3</t>
+  </si>
+  <si>
+    <t>CSD17305Q5A</t>
+  </si>
+  <si>
+    <t>CSD17306Q5A</t>
+  </si>
+  <si>
+    <t>CSD17307Q5A</t>
+  </si>
+  <si>
+    <t>CSD17308Q3</t>
+  </si>
+  <si>
+    <t>CSD17308Q3T</t>
+  </si>
+  <si>
+    <t>CSD17309Q3</t>
+  </si>
+  <si>
+    <t>CSD17310Q5A</t>
+  </si>
+  <si>
+    <t>CSD17311Q5</t>
+  </si>
+  <si>
+    <t>CSD17312Q5</t>
+  </si>
+  <si>
+    <t>CSD17313Q2</t>
+  </si>
+  <si>
+    <t>CSD17313Q2Q1</t>
+  </si>
+  <si>
+    <t>CSD17313Q2Q1T</t>
+  </si>
+  <si>
+    <t>CSD17313Q2T</t>
+  </si>
+  <si>
+    <t>CSD17318Q2</t>
+  </si>
+  <si>
+    <t>CSD17318Q2T</t>
+  </si>
+  <si>
+    <t>CSD17322Q5A</t>
+  </si>
+  <si>
+    <t>CSD17327Q5A</t>
+  </si>
+  <si>
+    <t>CSD17381F4</t>
+  </si>
+  <si>
+    <t>CSD17381F4T</t>
+  </si>
+  <si>
+    <t>CSD17382F4</t>
+  </si>
+  <si>
+    <t>CSD17382F4T</t>
+  </si>
+  <si>
+    <t>CSD17483F4</t>
+  </si>
+  <si>
+    <t>CSD17483F4T</t>
+  </si>
+  <si>
+    <t>CSD17484F4</t>
+  </si>
+  <si>
+    <t>CSD17484F4T</t>
+  </si>
+  <si>
+    <t>CSD17501Q5A</t>
+  </si>
+  <si>
+    <t>CSD17505Q5A</t>
+  </si>
+  <si>
+    <t>CSD17506Q5A</t>
+  </si>
+  <si>
+    <t>CSD17507Q5A</t>
+  </si>
+  <si>
+    <t>CSD17507Q5AT</t>
+  </si>
+  <si>
+    <t>CSD17510Q5A</t>
+  </si>
+  <si>
+    <t>CSD17522Q5A</t>
+  </si>
+  <si>
+    <t>CSD17527Q5A</t>
+  </si>
+  <si>
+    <t>CSD17551Q3A</t>
+  </si>
+  <si>
+    <t>CSD17551Q5A</t>
+  </si>
+  <si>
+    <t>CSD17552Q3A</t>
+  </si>
+  <si>
+    <t>CSD17552Q5A</t>
+  </si>
+  <si>
+    <t>CSD17553Q5A</t>
+  </si>
+  <si>
+    <t>CSD17555Q5A</t>
+  </si>
+  <si>
+    <t>CSD17556Q5B</t>
+  </si>
+  <si>
+    <t>CSD17556Q5BT</t>
+  </si>
+  <si>
+    <t>CSD17559Q5</t>
+  </si>
+  <si>
+    <t>CSD17559Q5T</t>
+  </si>
+  <si>
+    <t>CSD17570Q5B</t>
+  </si>
+  <si>
+    <t>CSD17570Q5BT</t>
+  </si>
+  <si>
+    <t>CSD17571Q2</t>
+  </si>
+  <si>
+    <t>CSD17573Q5B</t>
+  </si>
+  <si>
+    <t>CSD17573Q5BT</t>
+  </si>
+  <si>
+    <t>CSD17575Q3</t>
+  </si>
+  <si>
+    <t>CSD17575Q3T</t>
+  </si>
+  <si>
+    <t>CSD17576Q5B</t>
+  </si>
+  <si>
+    <t>CSD17576Q5BT</t>
+  </si>
+  <si>
+    <t>CSD17577Q3A</t>
+  </si>
+  <si>
+    <t>CSD17577Q3AT</t>
+  </si>
+  <si>
+    <t>CSD17577Q5A</t>
+  </si>
+  <si>
+    <t>CSD17577Q5AT</t>
+  </si>
+  <si>
+    <t>CSD17578Q3A</t>
+  </si>
+  <si>
+    <t>CSD17578Q3AT</t>
+  </si>
+  <si>
+    <t>CSD17578Q5A</t>
+  </si>
+  <si>
+    <t>CSD17578Q5AT</t>
+  </si>
+  <si>
+    <t>CSD17579Q3A</t>
+  </si>
+  <si>
+    <t>CSD17579Q3AT</t>
+  </si>
+  <si>
+    <t>CSD17579Q5A</t>
+  </si>
+  <si>
+    <t>CSD17579Q5AT</t>
+  </si>
+  <si>
+    <t>CSD17581Q3A</t>
+  </si>
+  <si>
+    <t>CSD17581Q3AT</t>
+  </si>
+  <si>
+    <t>CSD17581Q5A</t>
+  </si>
+  <si>
+    <t>CSD17581Q5AT</t>
+  </si>
+  <si>
+    <t>CSD17585F5</t>
+  </si>
+  <si>
+    <t>CSD17585F5T</t>
+  </si>
+  <si>
+    <t>CSD18501Q5A</t>
+  </si>
+  <si>
+    <t>CSD18502KCS</t>
+  </si>
+  <si>
+    <t>CSD18502Q5B</t>
+  </si>
+  <si>
+    <t>CSD18502Q5BT</t>
+  </si>
+  <si>
+    <t>CSD18503KCS</t>
+  </si>
+  <si>
+    <t>CSD18503Q5A</t>
+  </si>
+  <si>
+    <t>CSD18503Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18504KCS</t>
+  </si>
+  <si>
+    <t>CSD18504Q5A</t>
+  </si>
+  <si>
+    <t>CSD18504Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18509Q5B</t>
+  </si>
+  <si>
+    <t>CSD18509Q5BT</t>
+  </si>
+  <si>
+    <t>CSD18510KCS</t>
+  </si>
+  <si>
+    <t>CSD18510KTT</t>
+  </si>
+  <si>
+    <t>CSD18510KTTT</t>
+  </si>
+  <si>
+    <t>CSD18510Q5B</t>
+  </si>
+  <si>
+    <t>CSD18510Q5BT</t>
+  </si>
+  <si>
+    <t>CSD18511KCS</t>
+  </si>
+  <si>
+    <t>CSD18511KTT</t>
+  </si>
+  <si>
+    <t>CSD18511KTTT</t>
+  </si>
+  <si>
+    <t>CSD18511Q5A</t>
+  </si>
+  <si>
+    <t>CSD18511Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18512Q5B</t>
+  </si>
+  <si>
+    <t>CSD18512Q5BT</t>
+  </si>
+  <si>
+    <t>CSD18513Q5A</t>
+  </si>
+  <si>
+    <t>CSD18513Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18514Q5A</t>
+  </si>
+  <si>
+    <t>CSD18514Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18531Q5A</t>
+  </si>
+  <si>
+    <t>CSD18531Q5AT</t>
+  </si>
+  <si>
+    <t>CSD18532KCS</t>
+  </si>
+  <si>
+    <t>CSD18532NQ5B</t>
   </si>
 </sst>
 </file>
@@ -813,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3664,6 +4741,7186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143">
+        <v>35412</v>
+      </c>
+      <c r="E143">
+        <v>50000</v>
+      </c>
+      <c r="F143">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>12325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153">
+        <v>33600</v>
+      </c>
+      <c r="E153">
+        <v>19500</v>
+      </c>
+      <c r="F153">
+        <v>61650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154">
+        <v>750</v>
+      </c>
+      <c r="E154">
+        <v>2750</v>
+      </c>
+      <c r="F154">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156">
+        <v>69180</v>
+      </c>
+      <c r="E156">
+        <v>6810</v>
+      </c>
+      <c r="F156">
+        <v>26530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158">
+        <v>71215</v>
+      </c>
+      <c r="E158">
+        <v>92750</v>
+      </c>
+      <c r="F158">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>6000</v>
+      </c>
+      <c r="F168">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170">
+        <v>3000</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>182</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178">
+        <v>6000</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179">
+        <v>857009</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180">
+        <v>38766</v>
+      </c>
+      <c r="E180">
+        <v>8295</v>
+      </c>
+      <c r="F180">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>187</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>188</v>
+      </c>
+      <c r="D182">
+        <v>194124</v>
+      </c>
+      <c r="E182">
+        <v>196900</v>
+      </c>
+      <c r="F182">
+        <v>46900</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>189</v>
+      </c>
+      <c r="D183">
+        <v>618</v>
+      </c>
+      <c r="E183">
+        <v>5000</v>
+      </c>
+      <c r="F183">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>190</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>191</v>
+      </c>
+      <c r="D185">
+        <v>390638</v>
+      </c>
+      <c r="E185">
+        <v>174000</v>
+      </c>
+      <c r="F185">
+        <v>120729</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187">
+        <v>6000</v>
+      </c>
+      <c r="E187">
+        <v>6000</v>
+      </c>
+      <c r="F187">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189">
+        <v>61270</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>197</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>12000</v>
+      </c>
+      <c r="F191">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>198</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195">
+        <v>240</v>
+      </c>
+      <c r="E195">
+        <v>9000</v>
+      </c>
+      <c r="F195">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>203</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>206</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>3000</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>207</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>208</v>
+      </c>
+      <c r="D202">
+        <v>1999</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>210</v>
+      </c>
+      <c r="D204">
+        <v>2500</v>
+      </c>
+      <c r="E204">
+        <v>2600</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>211</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>212</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>3000</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>214</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>215</v>
+      </c>
+      <c r="D209">
+        <v>109480</v>
+      </c>
+      <c r="E209">
+        <v>29150</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>216</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>217</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>218</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>219</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
+      <c r="D214">
+        <v>87000</v>
+      </c>
+      <c r="E214">
+        <v>29880</v>
+      </c>
+      <c r="F214">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+      <c r="D215">
+        <v>33000</v>
+      </c>
+      <c r="E215">
+        <v>64537</v>
+      </c>
+      <c r="F215">
+        <v>104643</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>223</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>224</v>
+      </c>
+      <c r="D218">
+        <v>59295</v>
+      </c>
+      <c r="E218">
+        <v>7339</v>
+      </c>
+      <c r="F218">
+        <v>33376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>225</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>226</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>227</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>228</v>
+      </c>
+      <c r="D222">
+        <v>3000</v>
+      </c>
+      <c r="E222">
+        <v>15000</v>
+      </c>
+      <c r="F222">
+        <v>54226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>229</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>9610</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>231</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>232</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>233</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228">
+        <v>308606</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>235</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>700</v>
+      </c>
+      <c r="F229">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>236</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231">
+        <v>21877</v>
+      </c>
+      <c r="E231">
+        <v>3000</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>238</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233">
+        <v>139177</v>
+      </c>
+      <c r="E233">
+        <v>24000</v>
+      </c>
+      <c r="F233">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>241</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237" t="s">
+        <v>243</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238">
+        <v>14250</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239" t="s">
+        <v>245</v>
+      </c>
+      <c r="D239">
+        <v>6250</v>
+      </c>
+      <c r="E239">
+        <v>2500</v>
+      </c>
+      <c r="F239">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240" t="s">
+        <v>246</v>
+      </c>
+      <c r="D240">
+        <v>17695</v>
+      </c>
+      <c r="E240">
+        <v>1250</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>249</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>4274</v>
+      </c>
+      <c r="F244">
+        <v>294490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246" t="s">
+        <v>252</v>
+      </c>
+      <c r="D246">
+        <v>21235</v>
+      </c>
+      <c r="E246">
+        <v>5000</v>
+      </c>
+      <c r="F246">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>253</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248" t="s">
+        <v>254</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>255</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250" t="s">
+        <v>256</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251" t="s">
+        <v>257</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252" t="s">
+        <v>258</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253" t="s">
+        <v>259</v>
+      </c>
+      <c r="D253">
+        <v>28250</v>
+      </c>
+      <c r="E253">
+        <v>6000</v>
+      </c>
+      <c r="F253">
+        <v>19325</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254" t="s">
+        <v>260</v>
+      </c>
+      <c r="D254">
+        <v>250</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255" t="s">
+        <v>261</v>
+      </c>
+      <c r="D255">
+        <v>114300</v>
+      </c>
+      <c r="E255">
+        <v>43503</v>
+      </c>
+      <c r="F255">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256" t="s">
+        <v>262</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>53</v>
+      </c>
+      <c r="F256">
+        <v>13216</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257" t="s">
+        <v>263</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258" t="s">
+        <v>264</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259" t="s">
+        <v>265</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260">
+        <v>81000</v>
+      </c>
+      <c r="E260">
+        <v>21287</v>
+      </c>
+      <c r="F260">
+        <v>99284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261">
+        <v>250</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264" t="s">
+        <v>270</v>
+      </c>
+      <c r="D264">
+        <v>598137</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265" t="s">
+        <v>271</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>9000</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266" t="s">
+        <v>272</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268" t="s">
+        <v>274</v>
+      </c>
+      <c r="D268">
+        <v>267299</v>
+      </c>
+      <c r="E268">
+        <v>714666</v>
+      </c>
+      <c r="F268">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269" t="s">
+        <v>275</v>
+      </c>
+      <c r="D269">
+        <v>5257</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270" t="s">
+        <v>276</v>
+      </c>
+      <c r="D270">
+        <v>160799</v>
+      </c>
+      <c r="E270">
+        <v>101800</v>
+      </c>
+      <c r="F270">
+        <v>29169</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271" t="s">
+        <v>277</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273">
+        <v>303752</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274" t="s">
+        <v>280</v>
+      </c>
+      <c r="D274">
+        <v>28464</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275" t="s">
+        <v>281</v>
+      </c>
+      <c r="D275">
+        <v>541697</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277">
+        <v>20000</v>
+      </c>
+      <c r="E277">
+        <v>216893</v>
+      </c>
+      <c r="F277">
+        <v>195647</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280" t="s">
+        <v>286</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281">
+        <v>24250</v>
+      </c>
+      <c r="E281">
+        <v>6900</v>
+      </c>
+      <c r="F281">
+        <v>16609</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283" t="s">
+        <v>289</v>
+      </c>
+      <c r="D283">
+        <v>243387</v>
+      </c>
+      <c r="E283">
+        <v>6809</v>
+      </c>
+      <c r="F283">
+        <v>17717</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284" t="s">
+        <v>290</v>
+      </c>
+      <c r="D284">
+        <v>755</v>
+      </c>
+      <c r="E284">
+        <v>500</v>
+      </c>
+      <c r="F284">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285" t="s">
+        <v>291</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286" t="s">
+        <v>292</v>
+      </c>
+      <c r="D286">
+        <v>35797</v>
+      </c>
+      <c r="E286">
+        <v>23596</v>
+      </c>
+      <c r="F286">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287" t="s">
+        <v>293</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>500</v>
+      </c>
+      <c r="F287">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288" t="s">
+        <v>294</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289" t="s">
+        <v>295</v>
+      </c>
+      <c r="D289">
+        <v>445176</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291" t="s">
+        <v>297</v>
+      </c>
+      <c r="D291">
+        <v>166810</v>
+      </c>
+      <c r="E291">
+        <v>42208</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292" t="s">
+        <v>298</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293" t="s">
+        <v>299</v>
+      </c>
+      <c r="D293">
+        <v>3500</v>
+      </c>
+      <c r="E293">
+        <v>8480</v>
+      </c>
+      <c r="F293">
+        <v>24767</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294" t="s">
+        <v>300</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>301</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296" t="s">
+        <v>302</v>
+      </c>
+      <c r="D296">
+        <v>411886</v>
+      </c>
+      <c r="E296">
+        <v>48010</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297" t="s">
+        <v>303</v>
+      </c>
+      <c r="D297">
+        <v>1000</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298" t="s">
+        <v>304</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299" t="s">
+        <v>305</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300" t="s">
+        <v>306</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>308</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303" t="s">
+        <v>309</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304" t="s">
+        <v>310</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305" t="s">
+        <v>311</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306" t="s">
+        <v>312</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307" t="s">
+        <v>313</v>
+      </c>
+      <c r="D307">
+        <v>1970</v>
+      </c>
+      <c r="E307">
+        <v>3390</v>
+      </c>
+      <c r="F307">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308" t="s">
+        <v>314</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309" t="s">
+        <v>315</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310" t="s">
+        <v>316</v>
+      </c>
+      <c r="D310">
+        <v>66000</v>
+      </c>
+      <c r="E310">
+        <v>5350</v>
+      </c>
+      <c r="F310">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311" t="s">
+        <v>317</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312" t="s">
+        <v>318</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313" t="s">
+        <v>319</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314" t="s">
+        <v>320</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>63560</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315" t="s">
+        <v>321</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316" t="s">
+        <v>322</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317" t="s">
+        <v>323</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318" t="s">
+        <v>324</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319" t="s">
+        <v>325</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>867555</v>
+      </c>
+      <c r="F319">
+        <v>18393</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320" t="s">
+        <v>326</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321" t="s">
+        <v>327</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322" t="s">
+        <v>328</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323" t="s">
+        <v>329</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>1050</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324" t="s">
+        <v>330</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>155500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325" t="s">
+        <v>331</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326" t="s">
+        <v>332</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327" t="s">
+        <v>333</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328" t="s">
+        <v>334</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329" t="s">
+        <v>335</v>
+      </c>
+      <c r="D329">
+        <v>28870</v>
+      </c>
+      <c r="E329">
+        <v>11720</v>
+      </c>
+      <c r="F329">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330" t="s">
+        <v>336</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331" t="s">
+        <v>337</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+      <c r="C332" t="s">
+        <v>338</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+      <c r="C333" t="s">
+        <v>339</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+      <c r="C334" t="s">
+        <v>340</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="C335" t="s">
+        <v>341</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+      <c r="C336" t="s">
+        <v>342</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+      <c r="C337" t="s">
+        <v>343</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+      <c r="C338" t="s">
+        <v>344</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+      <c r="C339" t="s">
+        <v>345</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+      <c r="C340" t="s">
+        <v>346</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+      <c r="C341" t="s">
+        <v>347</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>348</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+      <c r="C343" t="s">
+        <v>349</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+      <c r="C344" t="s">
+        <v>350</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+      <c r="C345" t="s">
+        <v>351</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+      <c r="C347" t="s">
+        <v>353</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348" t="s">
+        <v>354</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>355</v>
+      </c>
+      <c r="D349">
+        <v>12000</v>
+      </c>
+      <c r="E349">
+        <v>54000</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+      <c r="C350" t="s">
+        <v>356</v>
+      </c>
+      <c r="D350">
+        <v>90000</v>
+      </c>
+      <c r="E350">
+        <v>612360</v>
+      </c>
+      <c r="F350">
+        <v>41628</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+      <c r="C351" t="s">
+        <v>357</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+      <c r="C352" t="s">
+        <v>358</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+      <c r="C353" t="s">
+        <v>359</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+      <c r="C354" t="s">
+        <v>360</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>3300</v>
+      </c>
+      <c r="F354">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355" t="s">
+        <v>361</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356" t="s">
+        <v>362</v>
+      </c>
+      <c r="D356">
+        <v>384009</v>
+      </c>
+      <c r="E356">
+        <v>84000</v>
+      </c>
+      <c r="F356">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357" t="s">
+        <v>363</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358" t="s">
+        <v>364</v>
+      </c>
+      <c r="D358">
+        <v>3881603</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359" t="s">
+        <v>365</v>
+      </c>
+      <c r="D359">
+        <v>26750</v>
+      </c>
+      <c r="E359">
+        <v>147500</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360" t="s">
+        <v>366</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>78500</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361" t="s">
+        <v>367</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+      <c r="C362" t="s">
+        <v>368</v>
+      </c>
+      <c r="D362">
+        <v>60000</v>
+      </c>
+      <c r="E362">
+        <v>18000</v>
+      </c>
+      <c r="F362">
+        <v>75700</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+      <c r="C363" t="s">
+        <v>369</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+      <c r="C364" t="s">
+        <v>370</v>
+      </c>
+      <c r="D364">
+        <v>68620</v>
+      </c>
+      <c r="E364">
+        <v>30000</v>
+      </c>
+      <c r="F364">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+      <c r="C365" t="s">
+        <v>371</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>750</v>
+      </c>
+      <c r="F365">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+      <c r="C366" t="s">
+        <v>372</v>
+      </c>
+      <c r="D366">
+        <v>9000</v>
+      </c>
+      <c r="E366">
+        <v>17250</v>
+      </c>
+      <c r="F366">
+        <v>249138</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+      <c r="C367" t="s">
+        <v>373</v>
+      </c>
+      <c r="D367">
+        <v>166800</v>
+      </c>
+      <c r="E367">
+        <v>94000</v>
+      </c>
+      <c r="F367">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+      <c r="C368" t="s">
+        <v>374</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>10000</v>
+      </c>
+      <c r="F368">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+      <c r="C369" t="s">
+        <v>375</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>30124</v>
+      </c>
+      <c r="F369">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+      <c r="C370" t="s">
+        <v>376</v>
+      </c>
+      <c r="D370">
+        <v>152500</v>
+      </c>
+      <c r="E370">
+        <v>9000</v>
+      </c>
+      <c r="F370">
+        <v>121298</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+      <c r="C371" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+      <c r="C372" t="s">
+        <v>378</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>4000</v>
+      </c>
+      <c r="F372">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+      <c r="C373" t="s">
+        <v>379</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>27986</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+      <c r="C374" t="s">
+        <v>380</v>
+      </c>
+      <c r="D374">
+        <v>380199</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+      <c r="C375" t="s">
+        <v>381</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+      <c r="C376" t="s">
+        <v>382</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+      <c r="C377" t="s">
+        <v>383</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>7</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+      <c r="C378" t="s">
+        <v>384</v>
+      </c>
+      <c r="D378">
+        <v>14500</v>
+      </c>
+      <c r="E378">
+        <v>1000</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+      <c r="C379" t="s">
+        <v>385</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>1000</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+      <c r="C380" t="s">
+        <v>386</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+      <c r="C381" t="s">
+        <v>387</v>
+      </c>
+      <c r="D381">
+        <v>22500</v>
+      </c>
+      <c r="E381">
+        <v>8000</v>
+      </c>
+      <c r="F381">
+        <v>25163</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+      <c r="C382" t="s">
+        <v>388</v>
+      </c>
+      <c r="D382">
+        <v>28400</v>
+      </c>
+      <c r="E382">
+        <v>2500</v>
+      </c>
+      <c r="F382">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>7</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+      <c r="C383" t="s">
+        <v>389</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+      <c r="C384" t="s">
+        <v>390</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+      <c r="C385" t="s">
+        <v>391</v>
+      </c>
+      <c r="D385">
+        <v>49995</v>
+      </c>
+      <c r="E385">
+        <v>88998</v>
+      </c>
+      <c r="F385">
+        <v>46228</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+      <c r="C386" t="s">
+        <v>392</v>
+      </c>
+      <c r="D386">
+        <v>16000</v>
+      </c>
+      <c r="E386">
+        <v>15300</v>
+      </c>
+      <c r="F386">
+        <v>31552</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+      <c r="C387" t="s">
+        <v>393</v>
+      </c>
+      <c r="D387">
+        <v>18695</v>
+      </c>
+      <c r="E387">
+        <v>3000</v>
+      </c>
+      <c r="F387">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+      <c r="C388" t="s">
+        <v>394</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+      <c r="C389" t="s">
+        <v>395</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+      <c r="C390" t="s">
+        <v>396</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>1030</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+      <c r="C391" t="s">
+        <v>397</v>
+      </c>
+      <c r="D391">
+        <v>5000</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>7</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392" t="s">
+        <v>398</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393" t="s">
+        <v>399</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>3049</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>7</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+      <c r="C394" t="s">
+        <v>400</v>
+      </c>
+      <c r="D394">
+        <v>5299</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>7</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+      <c r="C395" t="s">
+        <v>401</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>7</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+      <c r="C396" t="s">
+        <v>402</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>672</v>
+      </c>
+      <c r="F396">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>7</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+      <c r="C397" t="s">
+        <v>403</v>
+      </c>
+      <c r="D397">
+        <v>12000</v>
+      </c>
+      <c r="E397">
+        <v>2000</v>
+      </c>
+      <c r="F397">
+        <v>32448</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+      <c r="C398" t="s">
+        <v>404</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>119461</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>7</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+      <c r="C399" t="s">
+        <v>405</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>10233</v>
+      </c>
+      <c r="F399">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>7</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+      <c r="C400" t="s">
+        <v>406</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>15084</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>7</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+      <c r="C401" t="s">
+        <v>407</v>
+      </c>
+      <c r="D401">
+        <v>10000</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+      <c r="C402" t="s">
+        <v>408</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403">
+        <v>402</v>
+      </c>
+      <c r="C403" t="s">
+        <v>409</v>
+      </c>
+      <c r="D403">
+        <v>94711</v>
+      </c>
+      <c r="E403">
+        <v>42331</v>
+      </c>
+      <c r="F403">
+        <v>57688</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404">
+        <v>403</v>
+      </c>
+      <c r="C404" t="s">
+        <v>410</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>7</v>
+      </c>
+      <c r="B405">
+        <v>404</v>
+      </c>
+      <c r="C405" t="s">
+        <v>411</v>
+      </c>
+      <c r="D405">
+        <v>2500</v>
+      </c>
+      <c r="E405">
+        <v>7500</v>
+      </c>
+      <c r="F405">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>7</v>
+      </c>
+      <c r="B406">
+        <v>405</v>
+      </c>
+      <c r="C406" t="s">
+        <v>412</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>3697</v>
+      </c>
+      <c r="F406">
+        <v>57597</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B407">
+        <v>406</v>
+      </c>
+      <c r="C407" t="s">
+        <v>413</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B408">
+        <v>407</v>
+      </c>
+      <c r="C408" t="s">
+        <v>414</v>
+      </c>
+      <c r="D408">
+        <v>5000</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>7</v>
+      </c>
+      <c r="B409">
+        <v>408</v>
+      </c>
+      <c r="C409" t="s">
+        <v>415</v>
+      </c>
+      <c r="D409">
+        <v>349860</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+      <c r="C410" t="s">
+        <v>416</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411">
+        <v>410</v>
+      </c>
+      <c r="C411" t="s">
+        <v>417</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>7</v>
+      </c>
+      <c r="B412">
+        <v>411</v>
+      </c>
+      <c r="C412" t="s">
+        <v>418</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413">
+        <v>412</v>
+      </c>
+      <c r="C413" t="s">
+        <v>419</v>
+      </c>
+      <c r="D413">
+        <v>812590</v>
+      </c>
+      <c r="E413">
+        <v>61540</v>
+      </c>
+      <c r="F413">
+        <v>315185</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414">
+        <v>413</v>
+      </c>
+      <c r="C414" t="s">
+        <v>420</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>10000</v>
+      </c>
+      <c r="F414">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+      <c r="C415" t="s">
+        <v>421</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+      <c r="C416" t="s">
+        <v>422</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+      <c r="C417" t="s">
+        <v>423</v>
+      </c>
+      <c r="D417">
+        <v>69000</v>
+      </c>
+      <c r="E417">
+        <v>18000</v>
+      </c>
+      <c r="F417">
+        <v>266754</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+      <c r="C418" t="s">
+        <v>424</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>7</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+      <c r="C419" t="s">
+        <v>425</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>24000</v>
+      </c>
+      <c r="F419">
+        <v>75020</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+      <c r="C420" t="s">
+        <v>426</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>7</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+      <c r="C421" t="s">
+        <v>427</v>
+      </c>
+      <c r="D421">
+        <v>226800</v>
+      </c>
+      <c r="E421">
+        <v>51000</v>
+      </c>
+      <c r="F421">
+        <v>750040</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+      <c r="C422" t="s">
+        <v>428</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>7000</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>7</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+      <c r="C423" t="s">
+        <v>429</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>21000</v>
+      </c>
+      <c r="F423">
+        <v>174220</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>7</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424" t="s">
+        <v>430</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425" t="s">
+        <v>431</v>
+      </c>
+      <c r="D425">
+        <v>4862</v>
+      </c>
+      <c r="E425">
+        <v>8164</v>
+      </c>
+      <c r="F425">
+        <v>41164</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+      <c r="C426" t="s">
+        <v>432</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>740</v>
+      </c>
+      <c r="F426">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+      <c r="C427" t="s">
+        <v>433</v>
+      </c>
+      <c r="D427">
+        <v>20000</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+      <c r="C428" t="s">
+        <v>434</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>177500</v>
+      </c>
+      <c r="F428">
+        <v>776089</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+      <c r="C429" t="s">
+        <v>435</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+      <c r="C430" t="s">
+        <v>436</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+      <c r="C431" t="s">
+        <v>437</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+      <c r="C432" t="s">
+        <v>438</v>
+      </c>
+      <c r="D432">
+        <v>2500</v>
+      </c>
+      <c r="E432">
+        <v>40000</v>
+      </c>
+      <c r="F432">
+        <v>47490</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+      <c r="C433" t="s">
+        <v>439</v>
+      </c>
+      <c r="D433">
+        <v>52500</v>
+      </c>
+      <c r="E433">
+        <v>6660</v>
+      </c>
+      <c r="F433">
+        <v>11527</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+      <c r="C434" t="s">
+        <v>440</v>
+      </c>
+      <c r="D434">
+        <v>10000</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+      <c r="C435" t="s">
+        <v>441</v>
+      </c>
+      <c r="D435">
+        <v>2500</v>
+      </c>
+      <c r="E435">
+        <v>2500</v>
+      </c>
+      <c r="F435">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+      <c r="C436" t="s">
+        <v>442</v>
+      </c>
+      <c r="D436">
+        <v>40000</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>26136</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+      <c r="C437" t="s">
+        <v>443</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+      <c r="C438" t="s">
+        <v>444</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+      <c r="C439" t="s">
+        <v>445</v>
+      </c>
+      <c r="D439">
+        <v>20500</v>
+      </c>
+      <c r="E439">
+        <v>2500</v>
+      </c>
+      <c r="F439">
+        <v>37751</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+      <c r="C440" t="s">
+        <v>446</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>7</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+      <c r="C441" t="s">
+        <v>447</v>
+      </c>
+      <c r="D441">
+        <v>144694</v>
+      </c>
+      <c r="E441">
+        <v>7500</v>
+      </c>
+      <c r="F441">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>7</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442" t="s">
+        <v>448</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>7</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443" t="s">
+        <v>449</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>7</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444" t="s">
+        <v>450</v>
+      </c>
+      <c r="D444">
+        <v>500</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445" t="s">
+        <v>451</v>
+      </c>
+      <c r="D445">
+        <v>92000</v>
+      </c>
+      <c r="E445">
+        <v>36000</v>
+      </c>
+      <c r="F445">
+        <v>41740</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446" t="s">
+        <v>452</v>
+      </c>
+      <c r="D446">
+        <v>65163</v>
+      </c>
+      <c r="E446">
+        <v>64083</v>
+      </c>
+      <c r="F446">
+        <v>48363</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447" t="s">
+        <v>453</v>
+      </c>
+      <c r="D447">
+        <v>2250</v>
+      </c>
+      <c r="E447">
+        <v>1000</v>
+      </c>
+      <c r="F447">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448" t="s">
+        <v>454</v>
+      </c>
+      <c r="D448">
+        <v>43702</v>
+      </c>
+      <c r="E448">
+        <v>3000</v>
+      </c>
+      <c r="F448">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449" t="s">
+        <v>455</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450" t="s">
+        <v>456</v>
+      </c>
+      <c r="D450">
+        <v>3600</v>
+      </c>
+      <c r="E450">
+        <v>2480</v>
+      </c>
+      <c r="F450">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451" t="s">
+        <v>457</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452" t="s">
+        <v>458</v>
+      </c>
+      <c r="D452">
+        <v>15500</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>97415</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453" t="s">
+        <v>459</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454" t="s">
+        <v>460</v>
+      </c>
+      <c r="D454">
+        <v>27500</v>
+      </c>
+      <c r="E454">
+        <v>1800</v>
+      </c>
+      <c r="F454">
+        <v>52740</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455" t="s">
+        <v>461</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456" t="s">
+        <v>462</v>
+      </c>
+      <c r="D456">
+        <v>62769</v>
+      </c>
+      <c r="E456">
+        <v>67500</v>
+      </c>
+      <c r="F456">
+        <v>68987</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457" t="s">
+        <v>463</v>
+      </c>
+      <c r="D457">
+        <v>3750</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458" t="s">
+        <v>464</v>
+      </c>
+      <c r="D458">
+        <v>98000</v>
+      </c>
+      <c r="E458">
+        <v>35000</v>
+      </c>
+      <c r="F458">
+        <v>59701</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459">
+        <v>458</v>
+      </c>
+      <c r="C459" t="s">
+        <v>465</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460">
+        <v>459</v>
+      </c>
+      <c r="C460" t="s">
+        <v>466</v>
+      </c>
+      <c r="D460">
+        <v>74320</v>
+      </c>
+      <c r="E460">
+        <v>148081</v>
+      </c>
+      <c r="F460">
+        <v>124464</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461">
+        <v>460</v>
+      </c>
+      <c r="C461" t="s">
+        <v>467</v>
+      </c>
+      <c r="D461">
+        <v>6750</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B462">
+        <v>461</v>
+      </c>
+      <c r="C462" t="s">
+        <v>468</v>
+      </c>
+      <c r="D462">
+        <v>7500</v>
+      </c>
+      <c r="E462">
+        <v>21000</v>
+      </c>
+      <c r="F462">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B463">
+        <v>462</v>
+      </c>
+      <c r="C463" t="s">
+        <v>469</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464">
+        <v>463</v>
+      </c>
+      <c r="C464" t="s">
+        <v>470</v>
+      </c>
+      <c r="D464">
+        <v>31500</v>
+      </c>
+      <c r="E464">
+        <v>75000</v>
+      </c>
+      <c r="F464">
+        <v>96150</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465">
+        <v>464</v>
+      </c>
+      <c r="C465" t="s">
+        <v>471</v>
+      </c>
+      <c r="D465">
+        <v>50000</v>
+      </c>
+      <c r="E465">
+        <v>14650</v>
+      </c>
+      <c r="F465">
+        <v>66050</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466">
+        <v>465</v>
+      </c>
+      <c r="C466" t="s">
+        <v>472</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>21000</v>
+      </c>
+      <c r="F466">
+        <v>41570</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467">
+        <v>466</v>
+      </c>
+      <c r="C467" t="s">
+        <v>473</v>
+      </c>
+      <c r="D467">
+        <v>2000</v>
+      </c>
+      <c r="E467">
+        <v>310</v>
+      </c>
+      <c r="F467">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468">
+        <v>467</v>
+      </c>
+      <c r="C468" t="s">
+        <v>474</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469">
+        <v>468</v>
+      </c>
+      <c r="C469" t="s">
+        <v>475</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>1750</v>
+      </c>
+      <c r="F469">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470">
+        <v>469</v>
+      </c>
+      <c r="C470" t="s">
+        <v>476</v>
+      </c>
+      <c r="D470">
+        <v>87920</v>
+      </c>
+      <c r="E470">
+        <v>320</v>
+      </c>
+      <c r="F470">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471">
+        <v>470</v>
+      </c>
+      <c r="C471" t="s">
+        <v>477</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472">
+        <v>471</v>
+      </c>
+      <c r="C472" t="s">
+        <v>478</v>
+      </c>
+      <c r="D472">
+        <v>3709</v>
+      </c>
+      <c r="E472">
+        <v>51963</v>
+      </c>
+      <c r="F472">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473">
+        <v>472</v>
+      </c>
+      <c r="C473" t="s">
+        <v>479</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474">
+        <v>473</v>
+      </c>
+      <c r="C474" t="s">
+        <v>480</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475">
+        <v>474</v>
+      </c>
+      <c r="C475" t="s">
+        <v>481</v>
+      </c>
+      <c r="D475">
+        <v>259000</v>
+      </c>
+      <c r="E475">
+        <v>50000</v>
+      </c>
+      <c r="F475">
+        <v>56025</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476">
+        <v>475</v>
+      </c>
+      <c r="C476" t="s">
+        <v>482</v>
+      </c>
+      <c r="D476">
+        <v>7000</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477">
+        <v>476</v>
+      </c>
+      <c r="C477" t="s">
+        <v>483</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>250</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478">
+        <v>477</v>
+      </c>
+      <c r="C478" t="s">
+        <v>484</v>
+      </c>
+      <c r="D478">
+        <v>55710</v>
+      </c>
+      <c r="E478">
+        <v>47200</v>
+      </c>
+      <c r="F478">
+        <v>82204</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B479">
+        <v>478</v>
+      </c>
+      <c r="C479" t="s">
+        <v>485</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480">
+        <v>479</v>
+      </c>
+      <c r="C480" t="s">
+        <v>486</v>
+      </c>
+      <c r="D480">
+        <v>5000</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B481">
+        <v>480</v>
+      </c>
+      <c r="C481" t="s">
+        <v>487</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B482">
+        <v>481</v>
+      </c>
+      <c r="C482" t="s">
+        <v>488</v>
+      </c>
+      <c r="D482">
+        <v>12032</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+      <c r="C483" t="s">
+        <v>489</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>500</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+      <c r="C484" t="s">
+        <v>490</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+      <c r="C485" t="s">
+        <v>491</v>
+      </c>
+      <c r="D485">
+        <v>5680</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+      <c r="C486" t="s">
+        <v>492</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+      <c r="C487" t="s">
+        <v>493</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="C488" t="s">
+        <v>494</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="C489" t="s">
+        <v>495</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+      <c r="C490" t="s">
+        <v>496</v>
+      </c>
+      <c r="D490">
+        <v>5400</v>
+      </c>
+      <c r="E490">
+        <v>42500</v>
+      </c>
+      <c r="F490">
+        <v>55030</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491">
+        <v>490</v>
+      </c>
+      <c r="C491" t="s">
+        <v>497</v>
+      </c>
+      <c r="D491">
+        <v>500</v>
+      </c>
+      <c r="E491">
+        <v>2750</v>
+      </c>
+      <c r="F491">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492">
+        <v>491</v>
+      </c>
+      <c r="C492" t="s">
+        <v>498</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>5000</v>
+      </c>
+      <c r="F492">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493">
+        <v>492</v>
+      </c>
+      <c r="C493" t="s">
+        <v>499</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494">
+        <v>493</v>
+      </c>
+      <c r="C494" t="s">
+        <v>500</v>
+      </c>
+      <c r="D494">
+        <v>4482</v>
+      </c>
+      <c r="E494">
+        <v>3119</v>
+      </c>
+      <c r="F494">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495">
+        <v>494</v>
+      </c>
+      <c r="C495" t="s">
+        <v>501</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496">
+        <v>495</v>
+      </c>
+      <c r="C496" t="s">
+        <v>502</v>
+      </c>
+      <c r="D496">
+        <v>79250</v>
+      </c>
+      <c r="E496">
+        <v>58888</v>
+      </c>
+      <c r="F496">
+        <v>562000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497">
+        <v>496</v>
+      </c>
+      <c r="C497" t="s">
+        <v>503</v>
+      </c>
+      <c r="D497">
+        <v>9000</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498">
+        <v>497</v>
+      </c>
+      <c r="C498" t="s">
+        <v>504</v>
+      </c>
+      <c r="D498">
+        <v>45116</v>
+      </c>
+      <c r="E498">
+        <v>6700</v>
+      </c>
+      <c r="F498">
+        <v>36559</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499">
+        <v>498</v>
+      </c>
+      <c r="C499" t="s">
+        <v>505</v>
+      </c>
+      <c r="D499">
+        <v>15500</v>
+      </c>
+      <c r="E499">
+        <v>25835</v>
+      </c>
+      <c r="F499">
+        <v>40151</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500">
+        <v>499</v>
+      </c>
+      <c r="C500" t="s">
+        <v>506</v>
+      </c>
+      <c r="D500">
+        <v>11235</v>
+      </c>
+      <c r="E500">
+        <v>776</v>
+      </c>
+      <c r="F500">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501">
+        <v>500</v>
+      </c>
+      <c r="C501" t="s">
+        <v>507</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>5000</v>
+      </c>
+      <c r="F501">
+        <v>13052</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
